--- a/docs/PT1/PT1_02.08.24_output.xlsx
+++ b/docs/PT1/PT1_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1684 +505,1997 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731003263.251033</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731003266.1694376</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731003263.251033.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731003266.1694376.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.77</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.58</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731003274.49191</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731003275.2289088</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731003274.49191.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731003275.2289088.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.77</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>285.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731003276.5931096</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731003276.5931096.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+          <t>./test_images/SBER1731003276.5931096.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>286.05</v>
       </c>
-      <c r="J5" t="n">
-        <v>286.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>286.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731003297.2301614</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731003300.2925487</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003297.2301614.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003300.2925487.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.73</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.53</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731003306.4256878</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731003307.5860486</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003306.4256878.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003307.5860486.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>131.27</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.0700000000000216</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731003309.0229664</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731003309.4135172</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003309.0229664.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731003309.4135172.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.31</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.17</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731003312.9963894</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731003313.4360788</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003312.9963894.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003313.4360788.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6710.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6680.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>30</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731003331.100217</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731003332.9277458</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003331.100217.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731003332.9277458.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6656</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6633</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731003345.988961</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731003348.2538235</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003345.988961.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003348.2538235.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>509.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>508.1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731003364.41196</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731003365.2426975</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003364.41196.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003365.2426975.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>508.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>505.75</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.550000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731003373.408199</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731003373.8955226</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003373.408199.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003373.8955226.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>505.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>504.85</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731003376.5779026</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731003376.88907</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003376.5779026.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731003376.88907.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>504.85</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>504.65</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731003395.2327437</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731003399.0318441</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731003395.2327437.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731003399.0318441.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>229.44</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>230.12</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6800000000000068</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731003412.45504</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731003413.308508</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003412.45504.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003413.308508.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1036.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1030.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731003430.6579392</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731003432.489065</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003430.6579392.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003432.489065.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1028</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1024.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3.799999999999955</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731003442.031068</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731003443.1293192</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003442.031068.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731003443.1293192.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1020</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731003446.9482424</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731003446.9482424.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>./test_images/CNY1731003446.9482424.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11.865</v>
       </c>
-      <c r="J19" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.003999999999999559</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731003466.904193</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731003468.9687285</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003466.904193.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003468.9687285.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>128.04</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731003469.2514827</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731003471.7523208</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003469.2514827.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731003471.7523208.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>128.52</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>128.16</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731003484.2872698</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731003484.723075</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003484.2872698.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003484.723075.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>165.76</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>164.78</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.9799999999999898</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731003496.7081022</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731003496.8936336</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003496.7081022.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003496.8936336.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>164.9</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>164.36</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731003500.222182</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731003500.3678505</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003500.222182.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003500.3678505.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>164.78</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>164.44</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731003500.5982382</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731003505.6735578</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003500.5982382.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731003505.6735578.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>164.84</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>165.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731003514.3778934</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731003514.3778934.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+          <t>./test_images/NLMK1731003514.3778934.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>165.28</v>
       </c>
-      <c r="J26" t="n">
-        <v>165.28</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731003536.753252</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731003538.6704895</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731003536.753252.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731003538.6704895.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>50.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50.36</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731003544.4478567</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731003545.4245086</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731003544.4478567.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731003545.4245086.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>50.355</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>50.38</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.02500000000000568</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731003569.4165754</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731003571.4421742</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731003569.4165754.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731003571.4421742.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1408</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1403</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731003580.363939</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731003581.5522826</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731003580.363939.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731003581.5522826.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1403.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1405</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731003585.2684155</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731003586.5926762</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003585.2684155.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003586.5926762.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>61.18</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.78</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3999999999999986</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731003601.9986928</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731003603.9703102</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003601.9986928.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003603.9703102.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.61</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.47</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731003610.6551535</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731003611.3383243</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003610.6551535.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003611.3383243.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.24</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.21</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731003612.148605</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731003613.1309762</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003612.148605.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003613.1309762.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.32</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>60.29</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731003613.2681627</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731003613.8241892</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003613.2681627.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731003613.8241892.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.39</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>60.33</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731003617.0318358</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731003617.47272</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731003617.0318358.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731003617.47272.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>97.55</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>97.55</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2175,1160 +2503,1376 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731003637.1363988</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731003640.6546268</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003637.1363988.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003640.6546268.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>57.16</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>57.18</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731003648.6418135</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731003649.624</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003648.6418135.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003649.624.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>56.94</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>56.86</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731003651.1252103</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731003651.88877</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003651.1252103.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731003651.88877.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>57.02</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>57.03</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731003652.786845</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731003652.9264436</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003652.786845.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003652.9264436.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>142.5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>144.42</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.919999999999987</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731003662.450101</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731003663.3388877</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003662.450101.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003663.3388877.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>143.7</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>143.16</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731003669.5441332</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731003674.1425211</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003669.5441332.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731003674.1425211.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>143.46</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>145.36</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.900000000000006</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731003684.372958</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731003684.372958.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731003684.372958.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>145</v>
       </c>
-      <c r="J43" t="n">
-        <v>145</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>145.26</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731003685.8405879</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731003687.3538086</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003685.8405879.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003687.3538086.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>21.112</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>20.883</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2289999999999992</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731003702.1788917</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731003706.1063144</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003702.1788917.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003706.1063144.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>20.847</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>20.849</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.001999999999998892</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731003713.5057187</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731003716.1203969</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003713.5057187.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003716.1203969.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>20.789</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>20.903</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1139999999999972</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731003744.2976913</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731003744.7658706</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731003744.2976913.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731003744.7658706.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>673.95</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>673.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731003747.8693762</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731003747.8693762.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+          <t>./test_images/SIBN1731003747.8693762.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>675.3</v>
       </c>
-      <c r="J48" t="n">
-        <v>675.3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-2.150000000000091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731003755.825247</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731003759.7505147</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003755.825247.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003759.7505147.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.10038</v>
       </c>
-      <c r="K49" t="n">
-        <v>-0.0002000000000000057</v>
+      <c r="M49" t="n">
+        <v>-0.0001999999999999919</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731003765.4474952</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731003766.5207279</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003765.4474952.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003766.5207279.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.099</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0005200000000000066</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731003769.779849</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731003770.1378968</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003769.779849.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731003770.1378968.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.0994</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0007599999999999968</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731003796.375211</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731003798.285496</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003796.375211.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003798.285496.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.6012000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.5995</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.001700000000000035</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731003800.3874269</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731003803.6719782</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003800.3874269.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003803.6719782.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.6029</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.6026</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.000299999999999967</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731003811.5047288</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731003811.7211492</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003811.5047288.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731003811.7211492.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.602</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.0008000000000000229</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731003814.0970666</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731003814.4755633</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003814.0970666.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003814.4755633.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2999.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2993</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>6.400000000000091</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731003829.0775292</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731003829.993898</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003829.0775292.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003829.993898.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2965.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>2966.95</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.149999999999636</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731003831.0959334</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731003833.3939416</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003831.0959334.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003833.3939416.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2969.8</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2984.15</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-14.34999999999991</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731003838.6903954</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731003839.1023517</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003838.6903954.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003839.1023517.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2966.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>4.300000000000182</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731003842.110198</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731003843.177449</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003842.110198.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003843.177449.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2965</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2964.05</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.9499999999998181</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731003862.5349493</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731003866.2678423</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731003862.5349493.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731003866.2678423.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>34.45</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>34.35</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3366,6 +3910,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3379,6 +3938,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.7699999999998909</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3392,6 +3960,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1320000000000007</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3400,11 +3977,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.09599999999999795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3413,11 +3999,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5599999999999739</v>
+        <v>0.8199999999999648</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2049999999999912</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3431,6 +4026,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.150000000000006</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3444,6 +4048,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.01666666666666572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08999999999999998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3452,11 +4065,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.003333333333330302</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3470,6 +4092,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3483,6 +4114,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.0376666666666677</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5200000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3496,6 +4136,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.0009333333333333416</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3509,6 +4158,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.136666666666675</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3517,11 +4175,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001079999999999998</v>
+        <v>0.001080000000000012</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.0003600000000000038</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3535,6 +4202,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.05749999999999744</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3548,6 +4224,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3561,6 +4246,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.3100000000000165</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3569,11 +4263,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3500000000000227</v>
+        <v>-1.800000000000068</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.9000000000000341</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3587,6 +4290,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>1.700000000000045</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3600,6 +4312,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3613,6 +4334,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3621,11 +4351,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.003999999999999559</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.003999999999999559</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3639,6 +4378,15 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3652,6 +4400,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
